--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c203_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c203_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1260,10 +1272,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1307,28 +1319,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1353,28 +1365,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2071,10 +2083,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2118,28 +2130,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2164,28 +2176,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2331,10 +2343,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2378,28 +2390,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2424,28 +2436,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2591,10 +2603,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="J85" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2638,28 +2650,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2684,28 +2696,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2822,10 +2834,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="J93" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2869,28 +2881,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2915,28 +2927,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3053,10 +3065,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="J101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3100,28 +3112,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3146,28 +3158,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3342,10 +3354,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="J111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3389,28 +3401,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3435,28 +3447,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3747,10 +3759,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3794,28 +3806,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3840,28 +3852,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3978,10 +3990,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="J133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4025,28 +4037,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4071,28 +4083,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4209,10 +4221,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
+      <c r="J141" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K141" s="2" t="s">
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4256,28 +4268,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4302,28 +4314,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4440,10 +4452,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
+      <c r="J149" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="2" t="s">
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4487,28 +4499,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4533,28 +4545,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4642,10 +4654,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4689,28 +4701,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4735,28 +4747,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4844,10 +4856,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
+      <c r="J163" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K163" s="2" t="s">
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4891,28 +4903,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4937,28 +4949,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5075,10 +5087,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
+      <c r="J171" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="2" t="s">
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
